--- a/Cong Tac Vien/Danh sach khach hang.xlsx
+++ b/Cong Tac Vien/Danh sach khach hang.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27840" windowHeight="12600"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>STT</t>
   </si>
@@ -23,9 +23,6 @@
     <t>Tên KH</t>
   </si>
   <si>
-    <t>Nguồn KH</t>
-  </si>
-  <si>
     <t>Chợ tốt</t>
   </si>
   <si>
@@ -78,6 +75,39 @@
   </si>
   <si>
     <t>KH tiềm năng</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Đã trả lời</t>
+  </si>
+  <si>
+    <t>Đang chờ đến công ty</t>
+  </si>
+  <si>
+    <t>Hành chính</t>
+  </si>
+  <si>
+    <t>Ngành tốt nghiệp</t>
+  </si>
+  <si>
+    <t>Sư phạm tiểu học</t>
+  </si>
+  <si>
+    <t>Nơi biết được ứng viên</t>
+  </si>
+  <si>
+    <t>Em của Trang 12A5</t>
+  </si>
+  <si>
+    <t>Hằng</t>
+  </si>
+  <si>
+    <t>‭097 4452920</t>
+  </si>
+  <si>
+    <t>Mới tốt nghiệp</t>
   </si>
 </sst>
 </file>
@@ -157,7 +187,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -177,10 +207,22 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -485,29 +527,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M43"/>
+  <dimension ref="A2:O43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
     <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="25.85546875" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="8.85546875" customWidth="1"/>
-    <col min="9" max="10" width="11.85546875" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1"/>
-    <col min="13" max="13" width="13" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" customWidth="1"/>
+    <col min="11" max="12" width="11.85546875" customWidth="1"/>
+    <col min="14" max="14" width="13" customWidth="1"/>
+    <col min="15" max="15" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
-      <c r="B2" s="12" t="s">
-        <v>4</v>
+      <c r="B2" s="9" t="s">
+        <v>3</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -520,8 +563,9 @@
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -535,8 +579,9 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
-    </row>
-    <row r="4" spans="1:13" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="1:15" s="3" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>0</v>
       </c>
@@ -544,351 +589,380 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="7" t="s">
+      <c r="J4" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="M4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="O4" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10">
         <f>IF(B5="","",SUBTOTAL(3,$B$5:B5))</f>
         <v>1</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="10">
+      <c r="B5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="13">
         <v>9000000</v>
       </c>
-      <c r="F5" s="6">
+      <c r="H5" s="10">
         <v>39</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="str">
+      <c r="I5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="N5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
         <f>IF(B6="","",SUBTOTAL(3,$B$5:B6))</f>
-        <v/>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="4"/>
+      <c r="I6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="str">
         <f>IF(B7="","",SUBTOTAL(3,$B$5:B7))</f>
         <v/>
       </c>
       <c r="C7" s="2"/>
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="str">
         <f>IF(B8="","",SUBTOTAL(3,$B$5:B8))</f>
         <v/>
       </c>
       <c r="C8" s="2"/>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="str">
         <f>IF(B9="","",SUBTOTAL(3,$B$5:B9))</f>
         <v/>
       </c>
       <c r="C9" s="2"/>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="str">
         <f>IF(B10="","",SUBTOTAL(3,$B$5:B10))</f>
         <v/>
       </c>
       <c r="C10" s="2"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="str">
         <f>IF(B11="","",SUBTOTAL(3,$B$5:B11))</f>
         <v/>
       </c>
       <c r="C11" s="2"/>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="str">
         <f>IF(B12="","",SUBTOTAL(3,$B$5:B12))</f>
         <v/>
       </c>
       <c r="C12" s="2"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G12" s="4"/>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="str">
         <f>IF(B13="","",SUBTOTAL(3,$B$5:B13))</f>
         <v/>
       </c>
       <c r="C13" s="2"/>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="str">
         <f>IF(B14="","",SUBTOTAL(3,$B$5:B14))</f>
         <v/>
       </c>
       <c r="C14" s="2"/>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="str">
         <f>IF(B15="","",SUBTOTAL(3,$B$5:B15))</f>
         <v/>
       </c>
       <c r="C15" s="2"/>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="str">
         <f>IF(B16="","",SUBTOTAL(3,$B$5:B16))</f>
         <v/>
       </c>
       <c r="C16" s="2"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="str">
         <f>IF(B17="","",SUBTOTAL(3,$B$5:B17))</f>
         <v/>
       </c>
       <c r="C17" s="2"/>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="str">
         <f>IF(B18="","",SUBTOTAL(3,$B$5:B18))</f>
         <v/>
       </c>
       <c r="C18" s="2"/>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="str">
         <f>IF(B19="","",SUBTOTAL(3,$B$5:B19))</f>
         <v/>
       </c>
       <c r="C19" s="2"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="str">
         <f>IF(B20="","",SUBTOTAL(3,$B$5:B20))</f>
         <v/>
       </c>
       <c r="C20" s="2"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="str">
         <f>IF(B21="","",SUBTOTAL(3,$B$5:B21))</f>
         <v/>
       </c>
       <c r="C21" s="2"/>
-      <c r="E21" s="4"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="str">
         <f>IF(B22="","",SUBTOTAL(3,$B$5:B22))</f>
         <v/>
       </c>
       <c r="C22" s="2"/>
-      <c r="E22" s="4"/>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="str">
         <f>IF(B23="","",SUBTOTAL(3,$B$5:B23))</f>
         <v/>
       </c>
       <c r="C23" s="2"/>
-      <c r="E23" s="4"/>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="str">
         <f>IF(B24="","",SUBTOTAL(3,$B$5:B24))</f>
         <v/>
       </c>
       <c r="C24" s="2"/>
-      <c r="E24" s="4"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G24" s="4"/>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="str">
         <f>IF(B25="","",SUBTOTAL(3,$B$5:B25))</f>
         <v/>
       </c>
       <c r="C25" s="2"/>
-      <c r="E25" s="4"/>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G25" s="4"/>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="str">
         <f>IF(B26="","",SUBTOTAL(3,$B$5:B26))</f>
         <v/>
       </c>
       <c r="C26" s="2"/>
-      <c r="E26" s="4"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G26" s="4"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="str">
         <f>IF(B27="","",SUBTOTAL(3,$B$5:B27))</f>
         <v/>
       </c>
       <c r="C27" s="2"/>
-      <c r="E27" s="4"/>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G27" s="4"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="str">
         <f>IF(B28="","",SUBTOTAL(3,$B$5:B28))</f>
         <v/>
       </c>
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="str">
         <f>IF(B29="","",SUBTOTAL(3,$B$5:B29))</f>
         <v/>
       </c>
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G29" s="4"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="str">
         <f>IF(B30="","",SUBTOTAL(3,$B$5:B30))</f>
         <v/>
       </c>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G30" s="4"/>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="str">
         <f>IF(B31="","",SUBTOTAL(3,$B$5:B31))</f>
         <v/>
       </c>
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G31" s="4"/>
+    </row>
+    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="str">
         <f>IF(B32="","",SUBTOTAL(3,$B$5:B32))</f>
         <v/>
       </c>
-      <c r="E32" s="4"/>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G32" s="4"/>
+    </row>
+    <row r="33" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="str">
         <f>IF(B33="","",SUBTOTAL(3,$B$5:B33))</f>
         <v/>
       </c>
-      <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G33" s="4"/>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="str">
         <f>IF(B34="","",SUBTOTAL(3,$B$5:B34))</f>
         <v/>
       </c>
-      <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G34" s="4"/>
+    </row>
+    <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="str">
         <f>IF(B35="","",SUBTOTAL(3,$B$5:B35))</f>
         <v/>
       </c>
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G35" s="4"/>
+    </row>
+    <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="str">
         <f>IF(B36="","",SUBTOTAL(3,$B$5:B36))</f>
         <v/>
       </c>
-      <c r="E36" s="4"/>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="G36" s="4"/>
+    </row>
+    <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="str">
         <f>IF(B37="","",SUBTOTAL(3,$B$5:B37))</f>
         <v/>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="str">
         <f>IF(B38="","",SUBTOTAL(3,$B$5:B38))</f>
         <v/>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="str">
         <f>IF(B39="","",SUBTOTAL(3,$B$5:B39))</f>
         <v/>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="str">
         <f>IF(B40="","",SUBTOTAL(3,$B$5:B40))</f>
         <v/>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="str">
         <f>IF(B41="","",SUBTOTAL(3,$B$5:B41))</f>
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="str">
         <f>IF(B42="","",SUBTOTAL(3,$B$5:B42))</f>
         <v/>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="str">
         <f>IF(B43="","",SUBTOTAL(3,$B$5:B43))</f>
         <v/>
@@ -896,7 +970,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="L5" r:id="rId1" location="px=SR-publicProfile-[PO-0][PL-default]"/>
+    <hyperlink ref="M5" r:id="rId1" location="px=SR-publicProfile-[PO-0][PL-default]"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>

--- a/Cong Tac Vien/Danh sach khach hang.xlsx
+++ b/Cong Tac Vien/Danh sach khach hang.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>STT</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Ngành tốt nghiệp</t>
   </si>
   <si>
-    <t>Sư phạm tiểu học</t>
-  </si>
-  <si>
     <t>Nơi biết được ứng viên</t>
   </si>
   <si>
@@ -104,10 +101,37 @@
     <t>Hằng</t>
   </si>
   <si>
-    <t>‭097 4452920</t>
-  </si>
-  <si>
     <t>Mới tốt nghiệp</t>
+  </si>
+  <si>
+    <t>Trung cấp: Sư phạm tiểu học</t>
+  </si>
+  <si>
+    <t>Đã liên hệ</t>
+  </si>
+  <si>
+    <t>Lương Thị Linh Nhi</t>
+  </si>
+  <si>
+    <t>Môi trường</t>
+  </si>
+  <si>
+    <t>Việc làm cần thơ</t>
+  </si>
+  <si>
+    <t>‭0974452920</t>
+  </si>
+  <si>
+    <t>Đến nộp hồ sơ</t>
+  </si>
+  <si>
+    <t>Vy</t>
+  </si>
+  <si>
+    <t>Tài chính ngân hàng</t>
+  </si>
+  <si>
+    <t>Có kinh nghiệm</t>
   </si>
 </sst>
 </file>
@@ -117,7 +141,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +189,12 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -187,7 +217,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -225,6 +255,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -527,22 +564,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O43"/>
+  <dimension ref="A2:O42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
     <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="25.85546875" customWidth="1"/>
+    <col min="5" max="5" width="25.85546875" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" customWidth="1"/>
     <col min="8" max="8" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5703125" customWidth="1"/>
+    <col min="9" max="9" width="16.5703125" customWidth="1"/>
     <col min="10" max="10" width="9.5703125" customWidth="1"/>
-    <col min="11" max="12" width="11.85546875" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="8.28515625" customWidth="1"/>
     <col min="14" max="14" width="13" customWidth="1"/>
     <col min="15" max="15" width="11" customWidth="1"/>
   </cols>
@@ -597,8 +637,8 @@
       <c r="E4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>26</v>
+      <c r="F4" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>10</v>
@@ -670,46 +710,76 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+    <row r="6" spans="1:15" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
         <f>IF(B6="","",SUBTOTAL(3,$B$5:B6))</f>
         <v>2</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="16"/>
+      <c r="I6" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" t="s">
+    </row>
+    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="6">
+        <f>IF(B7="","",SUBTOTAL(3,$B$5:B7))</f>
+        <v>3</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="4"/>
+      <c r="I7" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="K7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="6">
+        <f>IF(B8="","",SUBTOTAL(3,$B$5:B8))</f>
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8">
         <v>25</v>
       </c>
-      <c r="F6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="I6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="str">
-        <f>IF(B7="","",SUBTOTAL(3,$B$5:B7))</f>
-        <v/>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="str">
-        <f>IF(B8="","",SUBTOTAL(3,$B$5:B8))</f>
-        <v/>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="G8" s="4"/>
+      <c r="I8" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="str">
@@ -860,7 +930,6 @@
         <f>IF(B27="","",SUBTOTAL(3,$B$5:B27))</f>
         <v/>
       </c>
-      <c r="C27" s="2"/>
       <c r="G27" s="4"/>
     </row>
     <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -924,7 +993,6 @@
         <f>IF(B36="","",SUBTOTAL(3,$B$5:B36))</f>
         <v/>
       </c>
-      <c r="G36" s="4"/>
     </row>
     <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="str">
@@ -959,12 +1027,6 @@
     <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="str">
         <f>IF(B42="","",SUBTOTAL(3,$B$5:B42))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="6" t="str">
-        <f>IF(B43="","",SUBTOTAL(3,$B$5:B43))</f>
         <v/>
       </c>
     </row>

--- a/Cong Tac Vien/Danh sach khach hang.xlsx
+++ b/Cong Tac Vien/Danh sach khach hang.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>STT</t>
   </si>
@@ -23,30 +23,18 @@
     <t>Tên KH</t>
   </si>
   <si>
-    <t>Chợ tốt</t>
-  </si>
-  <si>
     <t>DANH SÁCH KHÁCH HÀNG</t>
   </si>
   <si>
     <t>Link</t>
   </si>
   <si>
-    <t>https://www.chotot.com/can-tho/nguoi-tim-viec/50569852.htm#px=SR-publicProfile-[PO-0][PL-default]</t>
-  </si>
-  <si>
-    <t>Quân</t>
-  </si>
-  <si>
     <t>Số điện thoại</t>
   </si>
   <si>
     <t>Kiểu công việc</t>
   </si>
   <si>
-    <t>Thợ điện, điện lạnh, máy tính</t>
-  </si>
-  <si>
     <t>Mức lương mong muốn</t>
   </si>
   <si>
@@ -56,36 +44,21 @@
     <t>Kinh nghiệm</t>
   </si>
   <si>
-    <t>3 - 5 năm</t>
-  </si>
-  <si>
     <t>Zalo</t>
   </si>
   <si>
     <t>Facebook</t>
   </si>
   <si>
-    <t>0919950659</t>
-  </si>
-  <si>
     <t>Viber</t>
   </si>
   <si>
     <t>Tình trạng</t>
   </si>
   <si>
-    <t>KH tiềm năng</t>
-  </si>
-  <si>
     <t>Note</t>
   </si>
   <si>
-    <t>Đã trả lời</t>
-  </si>
-  <si>
-    <t>Đang chờ đến công ty</t>
-  </si>
-  <si>
     <t>Hành chính</t>
   </si>
   <si>
@@ -132,6 +105,36 @@
   </si>
   <si>
     <t>Có kinh nghiệm</t>
+  </si>
+  <si>
+    <t>Group VIỆC LÀM CẦN THƠ</t>
+  </si>
+  <si>
+    <t>Tư vấn và chăm sóc khách hàng</t>
+  </si>
+  <si>
+    <t>Hứa trong tháng 10</t>
+  </si>
+  <si>
+    <t>Thảo</t>
+  </si>
+  <si>
+    <t>Quản trị kinh doanh</t>
+  </si>
+  <si>
+    <t>Liên hệ qua Zalo</t>
+  </si>
+  <si>
+    <t>Lễ tân tại bảo hành samsung</t>
+  </si>
+  <si>
+    <t>Đến ứng tuyển</t>
+  </si>
+  <si>
+    <t>Đã được nhận</t>
+  </si>
+  <si>
+    <t>Vào làm tại cty</t>
   </si>
 </sst>
 </file>
@@ -141,7 +144,7 @@
   <numFmts count="1">
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,13 +159,6 @@
       <family val="1"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Times New Roman"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
@@ -172,13 +168,6 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -213,9 +202,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -227,32 +215,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -261,10 +240,20 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -564,17 +553,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:O42"/>
+  <dimension ref="A2:O41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="18.7109375" customWidth="1"/>
     <col min="3" max="3" width="14.140625" customWidth="1"/>
-    <col min="4" max="4" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" customWidth="1"/>
     <col min="5" max="5" width="25.85546875" customWidth="1"/>
     <col min="6" max="6" width="18.28515625" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" customWidth="1"/>
@@ -590,7 +579,7 @@
     <row r="2" spans="1:15" s="1" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -629,247 +618,268 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="I4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="8" t="s">
+      <c r="J4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="M4" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="M4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="N4" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="O4" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="12" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <f>IF(B5="","",SUBTOTAL(3,$B$5:B5))</f>
         <v>1</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="13">
-        <v>9000000</v>
-      </c>
-      <c r="H5" s="10">
-        <v>39</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="10" t="s">
+      <c r="B5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="N5" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="O5" s="11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="15" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="O5" s="15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="12" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <f>IF(B6="","",SUBTOTAL(3,$B$5:B6))</f>
         <v>2</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="B6" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="E6" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="13"/>
+      <c r="H6" s="17"/>
+      <c r="I6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="I6" s="15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+    </row>
+    <row r="7" spans="1:15" s="12" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10">
         <f>IF(B7="","",SUBTOTAL(3,$B$5:B7))</f>
         <v>3</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="E7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="I7" s="15" t="s">
+      <c r="E7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="K7" t="s">
+      <c r="F7" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="N7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="G7" s="13"/>
+      <c r="H7" s="17">
+        <v>25</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="10">
         <f>IF(B8="","",SUBTOTAL(3,$B$5:B8))</f>
         <v>4</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="E8" t="s">
+      <c r="E8" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="17">
+        <v>27</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="N8" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8">
-        <v>25</v>
-      </c>
-      <c r="I8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="str">
+    </row>
+    <row r="9" spans="1:15" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="str">
         <f>IF(B9="","",SUBTOTAL(3,$B$5:B9))</f>
         <v/>
       </c>
-      <c r="C9" s="2"/>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="str">
+      <c r="C9" s="14"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="17"/>
+    </row>
+    <row r="10" spans="1:15" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="str">
         <f>IF(B10="","",SUBTOTAL(3,$B$5:B10))</f>
         <v/>
       </c>
-      <c r="C10" s="2"/>
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="str">
+      <c r="C10" s="14"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="17"/>
+    </row>
+    <row r="11" spans="1:15" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="str">
         <f>IF(B11="","",SUBTOTAL(3,$B$5:B11))</f>
         <v/>
       </c>
-      <c r="C11" s="2"/>
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="str">
+      <c r="C11" s="14"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="17"/>
+    </row>
+    <row r="12" spans="1:15" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="str">
         <f>IF(B12="","",SUBTOTAL(3,$B$5:B12))</f>
         <v/>
       </c>
-      <c r="C12" s="2"/>
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="str">
+      <c r="C12" s="14"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" spans="1:15" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="str">
         <f>IF(B13="","",SUBTOTAL(3,$B$5:B13))</f>
         <v/>
       </c>
-      <c r="C13" s="2"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="str">
+      <c r="C13" s="14"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="1:15" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="str">
         <f>IF(B14="","",SUBTOTAL(3,$B$5:B14))</f>
         <v/>
       </c>
-      <c r="C14" s="2"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="str">
+      <c r="C14" s="14"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="1:15" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="str">
         <f>IF(B15="","",SUBTOTAL(3,$B$5:B15))</f>
         <v/>
       </c>
-      <c r="C15" s="2"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="str">
+      <c r="C15" s="14"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="1:15" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="str">
         <f>IF(B16="","",SUBTOTAL(3,$B$5:B16))</f>
         <v/>
       </c>
-      <c r="C16" s="2"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="str">
+      <c r="C16" s="14"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:8" s="12" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="str">
         <f>IF(B17="","",SUBTOTAL(3,$B$5:B17))</f>
         <v/>
       </c>
-      <c r="C17" s="2"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C17" s="14"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="str">
         <f>IF(B18="","",SUBTOTAL(3,$B$5:B18))</f>
         <v/>
       </c>
       <c r="C18" s="2"/>
       <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="str">
         <f>IF(B19="","",SUBTOTAL(3,$B$5:B19))</f>
         <v/>
       </c>
       <c r="C19" s="2"/>
       <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="H19" s="17"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="str">
         <f>IF(B20="","",SUBTOTAL(3,$B$5:B20))</f>
         <v/>
@@ -877,7 +887,7 @@
       <c r="C20" s="2"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="str">
         <f>IF(B21="","",SUBTOTAL(3,$B$5:B21))</f>
         <v/>
@@ -885,7 +895,7 @@
       <c r="C21" s="2"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="str">
         <f>IF(B22="","",SUBTOTAL(3,$B$5:B22))</f>
         <v/>
@@ -893,7 +903,7 @@
       <c r="C22" s="2"/>
       <c r="G22" s="4"/>
     </row>
-    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="str">
         <f>IF(B23="","",SUBTOTAL(3,$B$5:B23))</f>
         <v/>
@@ -901,7 +911,7 @@
       <c r="C23" s="2"/>
       <c r="G23" s="4"/>
     </row>
-    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="str">
         <f>IF(B24="","",SUBTOTAL(3,$B$5:B24))</f>
         <v/>
@@ -909,7 +919,7 @@
       <c r="C24" s="2"/>
       <c r="G24" s="4"/>
     </row>
-    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="str">
         <f>IF(B25="","",SUBTOTAL(3,$B$5:B25))</f>
         <v/>
@@ -917,50 +927,49 @@
       <c r="C25" s="2"/>
       <c r="G25" s="4"/>
     </row>
-    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="str">
         <f>IF(B26="","",SUBTOTAL(3,$B$5:B26))</f>
         <v/>
       </c>
-      <c r="C26" s="2"/>
       <c r="G26" s="4"/>
     </row>
-    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="str">
         <f>IF(B27="","",SUBTOTAL(3,$B$5:B27))</f>
         <v/>
       </c>
       <c r="G27" s="4"/>
     </row>
-    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="str">
         <f>IF(B28="","",SUBTOTAL(3,$B$5:B28))</f>
         <v/>
       </c>
       <c r="G28" s="4"/>
     </row>
-    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="str">
         <f>IF(B29="","",SUBTOTAL(3,$B$5:B29))</f>
         <v/>
       </c>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="str">
         <f>IF(B30="","",SUBTOTAL(3,$B$5:B30))</f>
         <v/>
       </c>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="str">
         <f>IF(B31="","",SUBTOTAL(3,$B$5:B31))</f>
         <v/>
       </c>
       <c r="G31" s="4"/>
     </row>
-    <row r="32" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="str">
         <f>IF(B32="","",SUBTOTAL(3,$B$5:B32))</f>
         <v/>
@@ -986,7 +995,6 @@
         <f>IF(B35="","",SUBTOTAL(3,$B$5:B35))</f>
         <v/>
       </c>
-      <c r="G35" s="4"/>
     </row>
     <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="str">
@@ -1024,18 +1032,9 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="6" t="str">
-        <f>IF(B42="","",SUBTOTAL(3,$B$5:B42))</f>
-        <v/>
-      </c>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="M5" r:id="rId1" location="px=SR-publicProfile-[PO-0][PL-default]"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
